--- a/Earle's ARBO - ARB.xlsx
+++ b/Earle's ARBO - ARB.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>First Name</t>
   </si>
@@ -36,6 +33,21 @@
     <t>Member Since</t>
   </si>
   <si>
+    <t>Unit No. Street</t>
+  </si>
+  <si>
+    <t>Barangay</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
     <t>Education Level</t>
   </si>
   <si>
@@ -54,12 +66,30 @@
     <t>M</t>
   </si>
   <si>
+    <t>847 Turin St., BF Homes Intl</t>
+  </si>
+  <si>
+    <t>San Andres I</t>
+  </si>
+  <si>
+    <t>QUEZON</t>
+  </si>
+  <si>
+    <t>NUEVA ECIJA</t>
+  </si>
+  <si>
+    <t>REGION III (CENTRAL LUZON)</t>
+  </si>
+  <si>
+    <t>College Level</t>
+  </si>
+  <si>
+    <t>Christopher Jorge</t>
+  </si>
+  <si>
     <t>Pineda</t>
   </si>
   <si>
-    <t>Christopher Jorge</t>
-  </si>
-  <si>
     <t>Francisco</t>
   </si>
   <si>
@@ -90,54 +120,57 @@
     <t>32 Legazpi St., San Lorenzo</t>
   </si>
   <si>
-    <t>847 Turin St., BF Homes Intl</t>
-  </si>
-  <si>
-    <t>Unit No. Street</t>
-  </si>
-  <si>
-    <t>Barangay</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Dependent Name</t>
   </si>
   <si>
     <t>Birthday</t>
   </si>
   <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t>ARB Name</t>
   </si>
   <si>
     <t>Noel Bryant</t>
   </si>
   <si>
+    <t>Vocational</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
     <t>Rey Christian Lopez Gamboa</t>
   </si>
   <si>
     <t>Junior Duncan</t>
   </si>
   <si>
+    <t>Father</t>
+  </si>
+  <si>
     <t>Shareef Mohammed</t>
   </si>
   <si>
+    <t>Wife</t>
+  </si>
+  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
+    <t>Sister</t>
+  </si>
+  <si>
     <t>Earle LeBron Calantuan</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
+    <t>Brother</t>
+  </si>
+  <si>
     <t>Crop Type</t>
   </si>
   <si>
@@ -147,46 +180,7 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Wife</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>College Level</t>
-  </si>
-  <si>
-    <t>Vocational</t>
-  </si>
-  <si>
     <t>Rice</t>
-  </si>
-  <si>
-    <t>REGION III (CENTRAL LUZON)</t>
-  </si>
-  <si>
-    <t>NUEVA ECIJA</t>
-  </si>
-  <si>
-    <t>QUEZON</t>
-  </si>
-  <si>
-    <t>San Andres I</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -241,42 +235,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,28 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,188 +560,181 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>43145</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>123000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
         <v>43142</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>124222</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>43115</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>3452</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>43100</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>232323</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -797,122 +743,119 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3">
         <v>35691</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3">
         <v>34625</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>24107</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3">
         <v>27679</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
         <v>34711</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -920,34 +863,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3">
         <v>43152</v>
@@ -956,7 +897,7 @@
         <v>43187</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Earle's ARBO - ARB.xlsx
+++ b/Earle's ARBO - ARB.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>First Name</t>
   </si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>Rice</t>
+  </si>
+  <si>
+    <t>TIN</t>
   </si>
 </sst>
 </file>
@@ -235,8 +241,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +577,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +614,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -618,8 +655,11 @@
       <c r="L2">
         <v>123000</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>21321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -656,8 +696,11 @@
       <c r="L3">
         <v>124222</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -694,8 +737,11 @@
       <c r="L4">
         <v>3452</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>56723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -732,9 +778,13 @@
       <c r="L5">
         <v>232323</v>
       </c>
+      <c r="M5">
+        <v>455</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -863,13 +913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/Earle's ARBO - ARB.xlsx
+++ b/Earle's ARBO - ARB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>First Name</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>TIN</t>
+  </si>
+  <si>
+    <t>ARB ID</t>
   </si>
 </sst>
 </file>
@@ -230,13 +233,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,219 +572,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>43145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>123000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>21321</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>43142</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>124222</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>43115</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3452</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>56723</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>43100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>232323</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>455</v>
       </c>
     </row>
